--- a/medicine/Pharmacie/Spray_nasal/Spray_nasal.xlsx
+++ b/medicine/Pharmacie/Spray_nasal/Spray_nasal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un spray nasal, également appelé vaporisateur nasal ou pulvérisateur nasal, est un appareil utilisé pour libérer dans le nez certaines substances sous forme de fines gouttelettes.
 Les substances libérées peuvent être de l'eau lorsque l'on cherche seulement à hydrater le nez ou des substances avec principes actifs lorsque l'on veut faire absorber ces substances par les muqueuses du nez.
